--- a/befehle.xlsx
+++ b/befehle.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Informatik\sprachdings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Fächer\Info\Netzwerke\sprachdings2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Comand</t>
   </si>
@@ -108,6 +108,66 @@
   </si>
   <si>
     <t>Boolean:isSucsessful?</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>openchat</t>
+  </si>
+  <si>
+    <t>createchat</t>
+  </si>
+  <si>
+    <t>addtochat</t>
+  </si>
+  <si>
+    <t>String:Nick</t>
+  </si>
+  <si>
+    <t>addtoFriendslist</t>
+  </si>
+  <si>
+    <t>removefromFriendslist</t>
+  </si>
+  <si>
+    <t>removefromChat</t>
+  </si>
+  <si>
+    <t>Chathistory_group</t>
+  </si>
+  <si>
+    <t>String:groupName</t>
+  </si>
+  <si>
+    <t>resend</t>
+  </si>
+  <si>
+    <t>String:what(Friend/Chat/Group)</t>
+  </si>
+  <si>
+    <t>String:what(null/with/group_name)</t>
+  </si>
+  <si>
+    <t>String:withusername</t>
+  </si>
+  <si>
+    <t>getusername</t>
+  </si>
+  <si>
+    <t>sendusername</t>
+  </si>
+  <si>
+    <t>friendlistadd</t>
+  </si>
+  <si>
+    <t>changecolor</t>
+  </si>
+  <si>
+    <t>String:Color(hex)</t>
+  </si>
+  <si>
+    <t>String:color(hex)</t>
   </si>
 </sst>
 </file>
@@ -459,13 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -556,86 +619,218 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F24" t="s">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I24" t="s">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J24" t="s">
         <v>9</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/befehle.xlsx
+++ b/befehle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Comand</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t>String:color(hex)</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>String:art</t>
+  </si>
+  <si>
+    <t>String:1mesage</t>
+  </si>
+  <si>
+    <t>getNick</t>
+  </si>
+  <si>
+    <t>String:Username</t>
+  </si>
+  <si>
+    <t>sendNick</t>
   </si>
 </sst>
 </file>
@@ -519,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +726,14 @@
         <v>46</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
@@ -793,6 +819,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
@@ -827,6 +864,14 @@
       </c>
       <c r="B31" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/befehle.xlsx
+++ b/befehle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Comand</t>
   </si>
@@ -101,9 +101,6 @@
     <t>String:mesage</t>
   </si>
   <si>
-    <t>String:timestamp</t>
-  </si>
-  <si>
     <t>LoginState</t>
   </si>
   <si>
@@ -143,18 +140,12 @@
     <t>resend</t>
   </si>
   <si>
-    <t>String:what(Friend/Chat/Group)</t>
-  </si>
-  <si>
     <t>String:what(null/with/group_name)</t>
   </si>
   <si>
     <t>String:withusername</t>
   </si>
   <si>
-    <t>getusername</t>
-  </si>
-  <si>
     <t>sendusername</t>
   </si>
   <si>
@@ -186,6 +177,18 @@
   </si>
   <si>
     <t>sendNick</t>
+  </si>
+  <si>
+    <t>long:timestamp</t>
+  </si>
+  <si>
+    <t>String:what(friend/chat/group)</t>
+  </si>
+  <si>
+    <t>sendmessagegroup</t>
+  </si>
+  <si>
+    <t>String:GroupID</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +642,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -648,28 +651,28 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -677,7 +680,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -685,7 +688,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -701,13 +704,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -715,68 +718,91 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -785,93 +811,79 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
+      <c r="C31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
